--- a/biology/Botanique/Puszcza_Solska/Puszcza_Solska.xlsx
+++ b/biology/Botanique/Puszcza_Solska/Puszcza_Solska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Puszcza Solska est un vaste massif forestier de Pologne, situé dans le sud de la voïvodie de Lublin, à une centaine de kilomètres au sud de Lublin. 
 Elle occupe une zone située au nord de la rivière San et au sud des hauteurs de Roztocze. La forêt est principalement constituée de conifères, dont une partie a été plantée. Sa superficie totale est de 124 000 ha, ce qui en fait le deuxième plus grand massif forestier de Pologne après celui de Basse-Silésie. Jusqu'à la fin du Moyen Âge, la Puszcza Solska était reliée à l'immense massif de Sandomierz, mais la déforestation les a séparés.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natura 2000 : fiche d'informations sur la Puszcza Solska
  Portail de la Pologne   Portail du bois et de la forêt                    </t>
